--- a/doc/13_外部設計/ログイン画面・新規登録画面.xlsx
+++ b/doc/13_外部設計/ログイン画面・新規登録画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F4AA44-EDAC-4B6B-955B-76B236479A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9A08C-6FE1-4EE1-832A-01B57E942D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -787,6 +787,21 @@
   <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>今日の日付が自動表示</t>
   </si>
 </sst>
 </file>
@@ -2119,6 +2134,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>52553</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>131381</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3EDB31-17FE-499F-A9DC-430D474E880D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5349767" y="1781504"/>
+          <a:ext cx="331076" cy="310055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3026,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6445,18 +6527,26 @@
       <c r="C85" s="13">
         <v>6</v>
       </c>
-      <c r="D85" s="14"/>
+      <c r="D85" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
-      <c r="O85" s="14"/>
+      <c r="O85" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
@@ -6471,7 +6561,9 @@
       <c r="AA85" s="14"/>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
+      <c r="AD85" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
@@ -7583,6 +7675,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AE2"/>
@@ -7599,7 +7692,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7615,7 +7707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C21CE-ECC5-4223-98F9-73CA5F4A6E6C}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
@@ -12180,11 +12272,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -12197,6 +12284,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/13_外部設計/ログイン画面・新規登録画面.xlsx
+++ b/doc/13_外部設計/ログイン画面・新規登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B9A08C-6FE1-4EE1-832A-01B57E942D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0F15EE-5085-4592-B163-6E8D755B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -457,19 +457,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>新規登録jspを表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3108,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
@@ -3136,7 +3123,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
@@ -3197,7 +3184,7 @@
       </c>
       <c r="X2" s="19"/>
       <c r="Y2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
@@ -3234,7 +3221,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -5546,7 +5533,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
@@ -5568,7 +5555,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
@@ -5609,7 +5596,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
@@ -5650,7 +5637,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -5722,7 +5709,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -5795,7 +5782,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -5876,7 +5863,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -6262,13 +6249,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -6279,7 +6266,7 @@
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -6291,13 +6278,13 @@
       </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -6320,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -6337,7 +6324,7 @@
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -6349,13 +6336,13 @@
       </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -6378,13 +6365,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -6428,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -6440,7 +6427,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -6478,19 +6465,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -6528,24 +6515,24 @@
         <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -6562,7 +6549,7 @@
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
@@ -7675,6 +7662,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
@@ -7691,7 +7679,6 @@
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7707,8 +7694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C21CE-ECC5-4223-98F9-73CA5F4A6E6C}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7735,7 +7722,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="N1" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
@@ -7796,7 +7783,7 @@
       </c>
       <c r="X2" s="19"/>
       <c r="Y2" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
@@ -7833,7 +7820,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -9517,9 +9504,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="8"/>
@@ -9562,7 +9547,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -9605,7 +9590,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -9669,7 +9654,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9754,7 +9739,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -9799,7 +9784,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -9843,7 +9828,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -9928,7 +9913,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10015,7 +10000,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -10097,7 +10082,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10148,7 +10133,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
@@ -10919,24 +10904,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -10948,13 +10933,13 @@
       </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -10977,24 +10962,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -11006,13 +10991,13 @@
       </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -11035,24 +11020,24 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -11064,13 +11049,13 @@
       </c>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -11093,19 +11078,19 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -12272,6 +12257,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -12288,7 +12274,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/13_外部設計/ログイン画面・新規登録画面.xlsx
+++ b/doc/13_外部設計/ログイン画面・新規登録画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0F15EE-5085-4592-B163-6E8D755B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BA60E8-30A2-4DEA-9740-15563E44E110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,13 +331,6 @@
   <si>
     <t>input</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スマホ表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>スマホ表示</t>
@@ -790,6 +783,10 @@
   <si>
     <t>今日の日付が自動表示</t>
   </si>
+  <si>
+    <t>画像</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1167,6 +1164,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,12 +1220,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2803,6 +2800,391 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157655</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>110358</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936F8CE6-BED4-2F42-A6BD-84DC3BDF3CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166648" y="1255987"/>
+          <a:ext cx="7772400" cy="4352043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>63062</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141890</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE6DB02-C134-4EB7-B724-C143E9A58E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594538" y="2501462"/>
+          <a:ext cx="331076" cy="310055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84083</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>162911</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0269C5BC-CB5B-46EA-BD9C-18673C6F63C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3615559" y="3079531"/>
+          <a:ext cx="331076" cy="310055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5254</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84082</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC4EEC9-B08C-44AD-B277-68181EC5D121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4293475" y="4456386"/>
+          <a:ext cx="331076" cy="310055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>194442</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>21021</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CC58CA-870F-4A21-8BB8-B3D43E60C47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7005145" y="1702677"/>
+          <a:ext cx="331076" cy="310055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136635</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215463</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830E22E0-08BC-47ED-B3A1-F584D963AA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3668111" y="3899338"/>
+          <a:ext cx="331076" cy="310055"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3095,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
@@ -3105,200 +3487,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="32"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="31">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="33">
         <v>45450</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="32" t="s">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -3393,7 +3775,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3462,7 +3844,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -5037,7 +5419,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -5533,7 +5915,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
@@ -5555,7 +5937,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
@@ -5596,7 +5978,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
@@ -5637,7 +6019,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -5709,7 +6091,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -5782,7 +6164,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -5863,7 +6245,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -5940,7 +6322,7 @@
       <c r="B73" s="6"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -6249,13 +6631,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -6266,7 +6648,7 @@
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -6278,13 +6660,13 @@
       </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -6307,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -6324,7 +6706,7 @@
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -6336,13 +6718,13 @@
       </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -6365,19 +6747,19 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -6415,7 +6797,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -6427,7 +6809,7 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -6465,19 +6847,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -6515,24 +6897,24 @@
         <v>6</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -6549,7 +6931,7 @@
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
       <c r="AD85" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
@@ -7662,11 +8044,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -7679,6 +8056,11 @@
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7694,8 +8076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C21CE-ECC5-4223-98F9-73CA5F4A6E6C}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7704,200 +8086,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="32"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="31">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="33">
         <v>45450</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="32" t="s">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -8058,9 +8440,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -8325,6 +8705,9 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -9418,7 +9801,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -9547,7 +9930,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -9590,7 +9973,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -9635,7 +10018,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -9654,7 +10037,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -9739,7 +10122,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -9784,7 +10167,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -9828,7 +10211,7 @@
       <c r="B53" s="6"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -9913,7 +10296,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10000,7 +10383,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -10082,7 +10465,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -10133,7 +10516,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
@@ -10796,7 +11179,7 @@
       <c r="B78" s="6"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -10904,24 +11287,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -10933,13 +11316,13 @@
       </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -10962,24 +11345,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -10991,13 +11374,13 @@
       </c>
       <c r="V81" s="17"/>
       <c r="W81" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
       <c r="AA81" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -11020,24 +11403,24 @@
         <v>3</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -11049,13 +11432,13 @@
       </c>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -11078,19 +11461,19 @@
         <v>4</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -12257,6 +12640,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -12273,7 +12657,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
